--- a/OEM Page Subcategory.xlsx
+++ b/OEM Page Subcategory.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexhuo/Documents/UCLA/[Courses]/Stats Major/STATS 141/Stats141 Project/github_repo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE2BDEE-923C-D449-A514-8FAFC5592373}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="736" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="736" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="10" state="hidden" r:id="rId2"/>
-    <sheet name="Pages" sheetId="16" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="10" state="hidden" r:id="rId1"/>
+    <sheet name="Pages" sheetId="16" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1280,7 +1285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1343,6 +1348,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1634,37 +1642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1669,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1689,7 +1680,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1700,7 +1691,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1702,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1733,7 +1724,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1738,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1752,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1763,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1786,7 +1777,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1791,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1814,7 +1805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +1819,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1844,7 +1835,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1855,8 +1846,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
@@ -1864,7 +1855,7 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="68" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="108" style="2" bestFit="1" customWidth="1"/>
@@ -1892,7 +1883,7 @@
     <col min="38" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" ht="35.25" customHeight="1">
+    <row r="1" spans="1:38" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -1969,7 +1960,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
@@ -2047,7 +2038,7 @@
       </c>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>136</v>
       </c>
@@ -2115,7 +2106,7 @@
       <c r="Y3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
@@ -2176,7 +2167,7 @@
       <c r="Y4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>208</v>
       </c>
@@ -2237,7 +2228,7 @@
       <c r="Y5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>350</v>
       </c>
@@ -2298,7 +2289,7 @@
       <c r="Y6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>228</v>
       </c>
@@ -2359,7 +2350,7 @@
       <c r="Y7" s="3"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>198</v>
       </c>
@@ -2418,7 +2409,7 @@
       <c r="Y8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>122</v>
       </c>
@@ -2474,7 +2465,7 @@
       <c r="Y9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>124</v>
       </c>
@@ -2524,7 +2515,7 @@
       <c r="Y10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2574,7 +2565,7 @@
       <c r="Y11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>171</v>
       </c>
@@ -2624,7 +2615,7 @@
       <c r="Y12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>143</v>
       </c>
@@ -2671,7 +2662,7 @@
       <c r="Y13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -2718,7 +2709,7 @@
       <c r="Y14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>184</v>
       </c>
@@ -2762,7 +2753,7 @@
       <c r="Y15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>195</v>
       </c>
@@ -2806,7 +2797,7 @@
       <c r="Y16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>168</v>
       </c>
@@ -2847,7 +2838,7 @@
       <c r="Y17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>170</v>
       </c>
@@ -2888,7 +2879,7 @@
       <c r="Y18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>170</v>
       </c>
@@ -2929,7 +2920,7 @@
       <c r="Y19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>170</v>
       </c>
@@ -2970,7 +2961,7 @@
       <c r="Y20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>111</v>
       </c>
@@ -3011,7 +3002,7 @@
       <c r="Y21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>202</v>
       </c>
@@ -3046,7 +3037,7 @@
       <c r="Y22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
@@ -3081,7 +3072,7 @@
       <c r="Y23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>125</v>
       </c>
@@ -3113,7 +3104,7 @@
       <c r="Y24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>138</v>
       </c>
@@ -3145,7 +3136,7 @@
       <c r="Y25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>139</v>
       </c>
@@ -3173,7 +3164,7 @@
       <c r="Y26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
@@ -3201,7 +3192,7 @@
       <c r="Y27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>294</v>
       </c>
@@ -3229,7 +3220,7 @@
       <c r="Y28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -3257,7 +3248,7 @@
       <c r="Y29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -3285,7 +3276,7 @@
       <c r="Y30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>358</v>
       </c>
@@ -3313,7 +3304,7 @@
       <c r="Y31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>241</v>
       </c>
@@ -3341,7 +3332,7 @@
       <c r="Y32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>356</v>
       </c>
@@ -3369,7 +3360,7 @@
       <c r="Y33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>254</v>
       </c>
@@ -3397,7 +3388,7 @@
       <c r="Y34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>225</v>
       </c>
@@ -3425,7 +3416,7 @@
       <c r="Y35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -3453,7 +3444,7 @@
       <c r="Y36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>287</v>
       </c>
@@ -3478,7 +3469,7 @@
       <c r="Y37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -3499,7 +3490,7 @@
       <c r="N38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>257</v>
       </c>
@@ -3520,7 +3511,7 @@
       <c r="N39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>274</v>
       </c>
@@ -3541,7 +3532,7 @@
       <c r="N40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>106</v>
       </c>
@@ -3558,7 +3549,7 @@
       <c r="M41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>329</v>
       </c>
@@ -3575,7 +3566,7 @@
       <c r="M42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>178</v>
       </c>
@@ -3592,7 +3583,7 @@
       <c r="M43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>121</v>
       </c>
@@ -3609,7 +3600,7 @@
       <c r="M44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>348</v>
       </c>
@@ -3623,7 +3614,7 @@
       <c r="K45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -3637,7 +3628,7 @@
       <c r="K46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>172</v>
       </c>
@@ -3651,7 +3642,7 @@
       <c r="K47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>149</v>
       </c>
@@ -3665,7 +3656,7 @@
       <c r="K48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>314</v>
       </c>
@@ -3679,7 +3670,7 @@
       <c r="K49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>227</v>
       </c>
@@ -3693,7 +3684,7 @@
       <c r="K50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>180</v>
       </c>
@@ -3707,7 +3698,7 @@
       <c r="K51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>75</v>
       </c>
@@ -3721,7 +3712,7 @@
       <c r="K52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
@@ -3735,7 +3726,7 @@
       <c r="K53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>86</v>
       </c>
@@ -3749,7 +3740,7 @@
       <c r="K54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>98</v>
       </c>
@@ -3763,7 +3754,7 @@
       <c r="K55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>190</v>
       </c>
@@ -3777,7 +3768,7 @@
       <c r="K56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>185</v>
       </c>
@@ -3791,7 +3782,7 @@
       <c r="K57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>69</v>
       </c>
@@ -3805,7 +3796,7 @@
       <c r="K58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>222</v>
       </c>
@@ -3819,7 +3810,7 @@
       <c r="K59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>162</v>
       </c>
@@ -3833,7 +3824,7 @@
       <c r="K60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>131</v>
       </c>
@@ -3847,7 +3838,7 @@
       <c r="K61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>101</v>
       </c>
@@ -3861,7 +3852,7 @@
       <c r="K62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>249</v>
       </c>
@@ -3875,7 +3866,7 @@
       <c r="K63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>123</v>
       </c>
@@ -3889,7 +3880,7 @@
       <c r="K64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>201</v>
       </c>
@@ -3903,7 +3894,7 @@
       <c r="K65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>144</v>
       </c>
@@ -3917,7 +3908,7 @@
       <c r="K66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>347</v>
       </c>
@@ -3931,7 +3922,7 @@
       <c r="K67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>278</v>
       </c>
@@ -3945,7 +3936,7 @@
       <c r="K68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>308</v>
       </c>
@@ -3959,7 +3950,7 @@
       <c r="K69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>389</v>
       </c>
@@ -3973,7 +3964,7 @@
       <c r="K70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>116</v>
       </c>
@@ -3987,7 +3978,7 @@
       <c r="K71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>61</v>
       </c>
@@ -4001,7 +3992,7 @@
       <c r="K72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>298</v>
       </c>
@@ -4015,7 +4006,7 @@
       <c r="K73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>342</v>
       </c>
@@ -4029,7 +4020,7 @@
       <c r="K74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>300</v>
       </c>
@@ -4043,7 +4034,7 @@
       <c r="K75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>32</v>
       </c>
@@ -4053,7 +4044,7 @@
       <c r="K76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -4063,7 +4054,7 @@
       <c r="K77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>282</v>
       </c>
@@ -4073,7 +4064,7 @@
       <c r="K78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>327</v>
       </c>
@@ -4083,7 +4074,7 @@
       <c r="K79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>384</v>
       </c>
@@ -4093,7 +4084,7 @@
       <c r="K80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>89</v>
       </c>
@@ -4103,7 +4094,7 @@
       <c r="K81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>71</v>
       </c>
@@ -4113,7 +4104,7 @@
       <c r="K82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>302</v>
       </c>
@@ -4123,7 +4114,7 @@
       <c r="K83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>66</v>
       </c>
@@ -4133,7 +4124,7 @@
       <c r="K84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>152</v>
       </c>
@@ -4143,7 +4134,7 @@
       <c r="K85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>70</v>
       </c>
@@ -4153,7 +4144,7 @@
       <c r="K86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>82</v>
       </c>
@@ -4163,7 +4154,7 @@
       <c r="K87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>353</v>
       </c>
@@ -4173,7 +4164,7 @@
       <c r="K88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>336</v>
       </c>
@@ -4183,7 +4174,7 @@
       <c r="K89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>341</v>
       </c>
@@ -4193,319 +4184,319 @@
       <c r="K90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>127</v>
       </c>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>238</v>
       </c>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>236</v>
       </c>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>167</v>
       </c>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>355</v>
       </c>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>283</v>
       </c>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>205</v>
       </c>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>182</v>
       </c>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>60</v>
       </c>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>158</v>
       </c>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>204</v>
       </c>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>270</v>
       </c>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>273</v>
       </c>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>130</v>
       </c>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>213</v>
       </c>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>187</v>
       </c>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>230</v>
       </c>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>217</v>
       </c>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>117</v>
       </c>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>159</v>
       </c>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>84</v>
       </c>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>229</v>
       </c>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>192</v>
       </c>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>397</v>
       </c>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>137</v>
       </c>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>210</v>
       </c>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>177</v>
       </c>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>73</v>
       </c>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>332</v>
       </c>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>74</v>
       </c>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>212</v>
       </c>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>349</v>
       </c>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>239</v>
       </c>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>363</v>
       </c>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>105</v>
       </c>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>256</v>
       </c>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>188</v>
       </c>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>285</v>
       </c>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>220</v>
       </c>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>373</v>
       </c>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>157</v>
       </c>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>234</v>
       </c>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>103</v>
       </c>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>100</v>
       </c>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>272</v>
       </c>
